--- a/TechParvaLEAO/Uploads/DownloadTemplate (1).xlsx
+++ b/TechParvaLEAO/Uploads/DownloadTemplate (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya.mishra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4E506-D293-427B-A24A-A8ACF3699D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9AF58-E2CF-4649-AB9A-39277349EAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7892,7 +7892,7 @@
     <t>C5672test01</t>
   </si>
   <si>
-    <t>C5672test02Mar</t>
+    <t>C5672test02March2024</t>
   </si>
 </sst>
 </file>
@@ -9145,7 +9145,7 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
